--- a/docs/templates/deposit_import_template.xlsx
+++ b/docs/templates/deposit_import_template.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="institutions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="products" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="product_balances" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Institutions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Example Bank" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -53,10 +49,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,78 +425,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Template for bulk import: institutions, products, product balances</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Template for bulk import matching export structure</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Fill each sheet starting from row 2. Do not change header names.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Order of import: institutions -&gt; products -&gt; product_balances.</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sheets: Institutions, Products, and one sheet per institution name.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Datetime format suggestion: 2025-01-31T00:00:00+08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Allowed values:</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>institutions.type = bank | broker | other</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>institutions.status = active | inactive | closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>products.product_type = deposit | investment | securities | other</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>products.status = active | inactive | closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>products.risk_level = flexible | stable | high_risk</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Balance sheets use a matrix: Date in column A, product names across columns.</t>
         </is>
       </c>
     </row>
@@ -517,74 +463,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>institution_key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INST001</t>
+          <t>Example Bank</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Example Bank</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bank</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>active</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"bank,broker,other"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"active,inactive,closed"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -595,86 +516,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>product_key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>institution_key</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>product_type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>risk_level</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Institution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROD001</t>
+          <t>Example Savings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INST001</t>
+          <t>Example Bank</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Example Savings</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -684,30 +584,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>stable</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"deposit,investment,securities,other"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"active,inactive,closed"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"flexible,stable,high_risk"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -718,49 +599,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>product_key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>as_of</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Example Savings</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROD001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-31T00:00:00+08:00</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>980</v>
       </c>
     </row>
